--- a/doc/TODO管理アプリ.xlsx
+++ b/doc/TODO管理アプリ.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_勉強\99_勉強会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B77FA5-D107-4141-930B-FB034E65B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC9D67-8B3B-4BE1-9282-45DAC6E71692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB953447-BCD4-4C73-9DB1-2371125F0E82}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB953447-BCD4-4C73-9DB1-2371125F0E82}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO管理" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="ユーザー" sheetId="3" r:id="rId3"/>
+    <sheet name="タスク" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>■複数人で使うTODO管理アプリを作りたい</t>
     <rPh sb="1" eb="4">
@@ -115,6 +118,79 @@
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急度</t>
+    <rPh sb="0" eb="3">
+      <t>キンキュウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1761,4 +1837,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD52319A-07F6-4ABD-9492-E87F1F935F53}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618E48A-5E19-4BA5-90B2-37141F337450}">
+  <dimension ref="B3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98267D25-E6AE-42A6-9DAB-43E87D749BCD}">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>